--- a/indicators/NO_WLAL_001_002/metadata.xlsx
+++ b/indicators/NO_WLAL_001_002/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanno.sandvik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\ecRxiv_vann\indicators\NO_WLAL_001_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE9321-5E16-4361-B972-3321CED5DECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02096C6-6961-4DF6-9B26-22FCE61C8B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -692,25 +692,25 @@
     <t>Sandvik, H.</t>
   </si>
   <si>
+    <t>Scale - Transform - Aggregate (size-weighted arithmetic mean) - Truncate</t>
+  </si>
+  <si>
+    <t>NO_WLAL_001</t>
+  </si>
+  <si>
+    <t>NO_WLAL_002</t>
+  </si>
+  <si>
+    <t>Labile aluminium</t>
+  </si>
+  <si>
+    <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_WLAL_001_002</t>
+  </si>
+  <si>
+    <t>First complete version</t>
+  </si>
+  <si>
     <t>001.000</t>
-  </si>
-  <si>
-    <t>First complete version</t>
-  </si>
-  <si>
-    <t>Scale - Transform - Aggregate (size-weighted arithmetic mean) - Truncate</t>
-  </si>
-  <si>
-    <t>NO_WLAL_001</t>
-  </si>
-  <si>
-    <t>NO_WLAL_002</t>
-  </si>
-  <si>
-    <t>Labile aluminium</t>
-  </si>
-  <si>
-    <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_WLAL_001_002</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>197</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>197</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>199</v>
@@ -1385,7 +1385,7 @@
         <v>166</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>178</v>
@@ -1399,7 +1399,7 @@
         <v>167</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>168</v>
@@ -1425,7 +1425,7 @@
         <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>187</v>
@@ -1453,7 +1453,7 @@
         <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>196</v>
